--- a/biology/Microbiologie/Bradyrhizobium/Bradyrhizobium.xlsx
+++ b/biology/Microbiologie/Bradyrhizobium/Bradyrhizobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradyrhizobium est un genre de protéobactéries de la famille des Bradyrhizobiaceae (ou Nitrobacteraceae (en).
-Les espèces du genre  Bradyrhizobium sont des bacilles à Gram négatif (en forme de bâtonnet) dotés d'un seul flagelle polaire ou subpolaire. Ce sont des micro-organismes du sol relativement communs qui peuvent former des relations symbiotiques avec des espèces de Fabaceae (autrefois appelées légumineuses) dans lesquelles ils fixent l'azote de l'air en échange d'hydrates de carbone produits par la plante[2].
+Les espèces du genre  Bradyrhizobium sont des bacilles à Gram négatif (en forme de bâtonnet) dotés d'un seul flagelle polaire ou subpolaire. Ce sont des micro-organismes du sol relativement communs qui peuvent former des relations symbiotiques avec des espèces de Fabaceae (autrefois appelées légumineuses) dans lesquelles ils fixent l'azote de l'air en échange d'hydrates de carbone produits par la plante.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (28 novembre 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (28 novembre 2023) :
 Bradyrhizobium agreste Klepa et al. 2021
 Bradyrhizobium algeriense Ahnia et al. 2019
 Bradyrhizobium americanum Ramírez-Bahena et al. 2017
@@ -585,7 +599,7 @@
 Bradyrhizobium viridifuturi Helene et al. 2015
 Bradyrhizobium yuanmingense Yao et al. 2002
 Bradyrhizobium zhengyangense Zhang et al. 2023
-Selon ITIS      (7 septembre 2019)[1] :
+Selon ITIS      (7 septembre 2019) :
 Bradyrhizobium betae Rivas &amp; al., 2004
 Bradyrhizobium canariense Vinuesa &amp; al., 2005
 Bradyrhizobium cytisi Chahbourne &amp; al., 2011
@@ -625,15 +639,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bradyrhizobium Jordan 1982[3].
-L'espèce type est : Bradyrhizobium japonicum (Kirchner 1896) Jordan 1982[3].
-Bradyrhizobium a pour synonyme[3] :
-Agromonas Ohta &amp; Hattori 1985
-Étymologie
-L'étymologie de ce genre est la suivante : Gr. masc. adj. bradys, ce qui signifie «lent»; N.L. neut. n. Rhizobium, un nom de genre bactérien; N.L. neut. n. Bradyrhizobium, le Rhizobium lent (en ce qui concerne sa croissance)[3].
-</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Bradyrhizobium Jordan 1982.
+L'espèce type est : Bradyrhizobium japonicum (Kirchner 1896) Jordan 1982.
+Bradyrhizobium a pour synonyme :
+Agromonas Ohta &amp; Hattori 1985</t>
         </is>
       </c>
     </row>
@@ -658,10 +671,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre est la suivante : Gr. masc. adj. bradys, ce qui signifie «lent»; N.L. neut. n. Rhizobium, un nom de genre bactérien; N.L. neut. n. Bradyrhizobium, le Rhizobium lent (en ce qui concerne sa croissance).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bradyrhizobium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradyrhizobium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) D. C. Jordan, « Transfer of Rhizobium japonicum Buchanan 1980 to Bradyrhizobium gen. nov., a Genus of Slow-Growing, Root Nodule Bacteria from Leguminous Plants », International Journal of Systematic Bacteriology, vol. 32, no 1,‎ 1er janvier 1982, p. 136–139 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-32-1-136, lire en ligne)</t>
         </is>
